--- a/medicine/Enfance/Isabel_Alçada/Isabel_Alçada.xlsx
+++ b/medicine/Enfance/Isabel_Alçada/Isabel_Alçada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabel_Al%C3%A7ada</t>
+          <t>Isabel_Alçada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabel Alçada (née le 29 mai 1950 à Lisbonne) est une enseignante, écrivaine et femme politique portugaise. Elle a été ministre de l'Éducation de 2009 à 2011.
 Elle est mariée à l'homme politique Emílio Rui Vilar (pt), ministre des Transports et des Communications du gouvernement de Mario Soares entre 1976 et 1978.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabel_Al%C3%A7ada</t>
+          <t>Isabel_Alçada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,89 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(liste partielle)
-Littérature d'enfance et de jeunesse
-Avec Ana Maria Magalhães (pt) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste partielle)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Isabel_Alçada</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Al%C3%A7ada</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Ana Maria Magalhães (pt) :
 Collection Viagens no Tempo (pt) (16 volumes entre 1985 et 2012)
 Collection Uma Aventura (pt) (66 volumes entre 1982 et 2023)
 Collection Asa Delta
 Chez Editorial Caminho (pt) : une grosse vingtaine de titres entre 1989 et 2013.
-Autres œuvres
-Um homem não chora..., Câmara Municipal de Grândola (1991)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isabel_Alçada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Al%C3%A7ada</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres œuvres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Um homem não chora..., Câmara Municipal de Grândola (1991)
 Segredos de Belém : guia dos Jerónimos, da Torre e do Bairro, Inst. Port. do Património Cultural (1992)
 Países sem fronteiras: a União Europeia, Centro de Informação Jacques Delors (1995)
 O Japão, Grupo de Trabalho do Ministério da Educação para as Comemorações dos Descobrimentos Portugueses (1995)
